--- a/data/trans_orig/P79_n_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R-Dificultad-trans_orig.xlsx
@@ -784,19 +784,19 @@
         <v>4414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10214</v>
+        <v>11585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008850046177974033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002388104690928645</v>
+        <v>0.002373675255997024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02047919652544083</v>
+        <v>0.02322826777462104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -805,19 +805,19 @@
         <v>4237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1337</v>
+        <v>1386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9614</v>
+        <v>10581</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.00679537498696346</v>
+        <v>0.006795374986963459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002144511581139755</v>
+        <v>0.002222764510207236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01541785011227693</v>
+        <v>0.01696767267181122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -826,19 +826,19 @@
         <v>8651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3849</v>
+        <v>4183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16412</v>
+        <v>15444</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.007708435175561075</v>
+        <v>0.007708435175561073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003429929295254268</v>
+        <v>0.003727499619947859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01462348111200094</v>
+        <v>0.01376081643641255</v>
       </c>
     </row>
     <row r="6">
@@ -853,19 +853,19 @@
         <v>14790</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7776</v>
+        <v>7811</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25842</v>
+        <v>27835</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02965421073216368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01559226080743229</v>
+        <v>0.01566133419249719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05181471120916255</v>
+        <v>0.05581105909618547</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -874,19 +874,19 @@
         <v>11821</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6643</v>
+        <v>6550</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23400</v>
+        <v>23080</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01895746877141671</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01065351763560979</v>
+        <v>0.01050435233643658</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03752586079521537</v>
+        <v>0.03701150006411581</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -895,19 +895,19 @@
         <v>26611</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16679</v>
+        <v>16069</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41089</v>
+        <v>40027</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0237109151013163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01486093873676114</v>
+        <v>0.01431757411570463</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03661076321912347</v>
+        <v>0.03566459105054288</v>
       </c>
     </row>
     <row r="7">
@@ -922,19 +922,19 @@
         <v>66585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51530</v>
+        <v>51699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85307</v>
+        <v>86022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.133506175195662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1033197763039925</v>
+        <v>0.1036599905767706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1710453519233733</v>
+        <v>0.1724784574104131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -943,19 +943,19 @@
         <v>73861</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59816</v>
+        <v>60345</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93437</v>
+        <v>91633</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1184474384168357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09592387850097803</v>
+        <v>0.09677227624551163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1498388902070122</v>
+        <v>0.1469468963351626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -964,19 +964,19 @@
         <v>140446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116855</v>
+        <v>119742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165181</v>
+        <v>165748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1251392794780589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.104119584395035</v>
+        <v>0.1066918877956998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1471785344312879</v>
+        <v>0.1476835371655079</v>
       </c>
     </row>
     <row r="8">
@@ -991,19 +991,19 @@
         <v>121688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100117</v>
+        <v>100492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>143494</v>
+        <v>144130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2439918966441388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2007396512078568</v>
+        <v>0.2014917795576407</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2877142375221287</v>
+        <v>0.288989480288745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>186</v>
@@ -1012,19 +1012,19 @@
         <v>144248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>123906</v>
+        <v>126849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>164311</v>
+        <v>166629</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2313216296931734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1987012614547354</v>
+        <v>0.2034210833159136</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.263496180094015</v>
+        <v>0.2672135839364534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>292</v>
@@ -1033,19 +1033,19 @@
         <v>265936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>239747</v>
+        <v>239513</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>296664</v>
+        <v>296961</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2369520762495106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.213616987367688</v>
+        <v>0.2134090917419381</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2643309714807766</v>
+        <v>0.2645960363882183</v>
       </c>
     </row>
     <row r="9">
@@ -1060,19 +1060,19 @@
         <v>291262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>266844</v>
+        <v>267432</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>315234</v>
+        <v>315585</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5839976712500614</v>
+        <v>0.5839976712500615</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5350374412986906</v>
+        <v>0.5362165619113943</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6320620616632324</v>
+        <v>0.6327655970409142</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>564</v>
@@ -1081,19 +1081,19 @@
         <v>389412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>367024</v>
+        <v>363029</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>412353</v>
+        <v>409402</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6244780881316105</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5885751363087367</v>
+        <v>0.5821684429470503</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6612669230359353</v>
+        <v>0.6565351892875766</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>836</v>
@@ -1102,19 +1102,19 @@
         <v>680675</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>647181</v>
+        <v>650166</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>711941</v>
+        <v>717469</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6064892939955532</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5766454281924518</v>
+        <v>0.5793054958843996</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6343473402943804</v>
+        <v>0.6392729316448766</v>
       </c>
     </row>
     <row r="10">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3805</v>
+        <v>5114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.000605543618298802</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.003409746781180826</v>
+        <v>0.004583228641699624</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2754</v>
+        <v>3519</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0003254816906634791</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.001326831027289051</v>
+        <v>0.001695028390243173</v>
       </c>
     </row>
     <row r="12">
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3568</v>
+        <v>3758</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0006308750524640548</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.00319785013894268</v>
+        <v>0.003367627501172508</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3945</v>
+        <v>3544</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0003390974200178734</v>
+        <v>0.0003390974200178733</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.001900493991966808</v>
+        <v>0.001707224560460973</v>
       </c>
     </row>
     <row r="13">
@@ -1326,19 +1326,19 @@
         <v>4326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12427</v>
+        <v>11873</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.004506064001545155</v>
+        <v>0.004506064001545156</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001086738615388966</v>
+        <v>0.00107551458505474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01294293118704433</v>
+        <v>0.01236605820820635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1347,19 +1347,19 @@
         <v>3242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>795</v>
+        <v>971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8080</v>
+        <v>8218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002905267723818634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0007120649996760935</v>
+        <v>0.000870057695874256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007241447443649632</v>
+        <v>0.007364541296413787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1368,19 +1368,19 @@
         <v>7568</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3473</v>
+        <v>3256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15505</v>
+        <v>15760</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.003645630726158653</v>
+        <v>0.003645630726158652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001672989472907823</v>
+        <v>0.001568369859899726</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007468619280942192</v>
+        <v>0.007591557263145245</v>
       </c>
     </row>
     <row r="14">
@@ -1395,19 +1395,19 @@
         <v>49554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37723</v>
+        <v>36752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66065</v>
+        <v>66164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05161186233673122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03928875438729046</v>
+        <v>0.03827814476427761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06880803613608175</v>
+        <v>0.06891068217990437</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -1416,19 +1416,19 @@
         <v>50835</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39028</v>
+        <v>39595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64588</v>
+        <v>66031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04555748672983229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03497623178672443</v>
+        <v>0.03548376187283179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05788243395814983</v>
+        <v>0.05917515986127572</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -1437,19 +1437,19 @@
         <v>100390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80755</v>
+        <v>85458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119570</v>
+        <v>122616</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0483576154932399</v>
+        <v>0.04835761549323989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03889939073455501</v>
+        <v>0.04116499867599707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0575968883955178</v>
+        <v>0.05906390980087774</v>
       </c>
     </row>
     <row r="15">
@@ -1464,19 +1464,19 @@
         <v>167211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>140481</v>
+        <v>140112</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>194198</v>
+        <v>195368</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1741537708945254</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1463136499265311</v>
+        <v>0.1459295214058769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2022612103722541</v>
+        <v>0.2034795232956769</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>220</v>
@@ -1485,19 +1485,19 @@
         <v>165820</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>147232</v>
+        <v>145841</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>190075</v>
+        <v>188059</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1486040952831365</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1319464955763168</v>
+        <v>0.1306994954134344</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1703408679764559</v>
+        <v>0.1685347825376241</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>375</v>
@@ -1506,19 +1506,19 @@
         <v>333031</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>298973</v>
+        <v>300830</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>368621</v>
+        <v>371834</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.160420736043525</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1440149278260917</v>
+        <v>0.144909511862716</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1775644916662748</v>
+        <v>0.1791119629222978</v>
       </c>
     </row>
     <row r="16">
@@ -1533,19 +1533,19 @@
         <v>739045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>710215</v>
+        <v>707947</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>770823</v>
+        <v>767780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7697283027671983</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7397016556213484</v>
+        <v>0.7373392130344389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.802826530400375</v>
+        <v>0.7996570302085381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1315</v>
@@ -1554,19 +1554,19 @@
         <v>894572</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>868886</v>
+        <v>871024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>915600</v>
+        <v>917388</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8016967315924497</v>
+        <v>0.8016967315924496</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7786769794889021</v>
+        <v>0.7805930494958834</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8205410030085069</v>
+        <v>0.822143200506579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2017</v>
@@ -1575,19 +1575,19 @@
         <v>1633617</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1595902</v>
+        <v>1594181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1671643</v>
+        <v>1669419</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7869114386263951</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7687439274858</v>
+        <v>0.7679149424015898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8052282144627155</v>
+        <v>0.804157201608085</v>
       </c>
     </row>
     <row r="17">
@@ -1812,19 +1812,19 @@
         <v>5854</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2065</v>
+        <v>2015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12027</v>
+        <v>11564</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005594380801894747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001973137723807573</v>
+        <v>0.001925238868406617</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01149306834000385</v>
+        <v>0.01104992084148141</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1833,19 +1833,19 @@
         <v>4363</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1556</v>
+        <v>1525</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10091</v>
+        <v>9487</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.00416454965251977</v>
+        <v>0.004164549652519771</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001485398121220548</v>
+        <v>0.001455988198916296</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009632468998102115</v>
+        <v>0.009055546204567621</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1854,19 +1854,19 @@
         <v>10217</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4912</v>
+        <v>5030</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16852</v>
+        <v>18339</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.004879068408039343</v>
+        <v>0.004879068408039344</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002345712190746872</v>
+        <v>0.002401825144615339</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008047344698206395</v>
+        <v>0.008757405427238074</v>
       </c>
     </row>
     <row r="22">
@@ -1881,19 +1881,19 @@
         <v>37785</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26833</v>
+        <v>25859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53436</v>
+        <v>53287</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03610655851545137</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02564129768892593</v>
+        <v>0.02471078713540993</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05106308961387484</v>
+        <v>0.05092004132496413</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -1902,19 +1902,19 @@
         <v>49144</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37651</v>
+        <v>37728</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65462</v>
+        <v>64710</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04690954075838535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03593924240833373</v>
+        <v>0.03601265967663463</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06248536022702723</v>
+        <v>0.0617673140652676</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -1923,19 +1923,19 @@
         <v>86929</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70125</v>
+        <v>69755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107153</v>
+        <v>106775</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04151104777444426</v>
+        <v>0.04151104777444425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03348646040413469</v>
+        <v>0.03330994512681355</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05116837266792038</v>
+        <v>0.05098805665572336</v>
       </c>
     </row>
     <row r="23">
@@ -1950,19 +1950,19 @@
         <v>1002840</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>986538</v>
+        <v>988133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1014634</v>
+        <v>1015885</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9582990606826538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9427216443595839</v>
+        <v>0.9442451530563805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9695698017848405</v>
+        <v>0.9707644023084151</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1450</v>
@@ -1971,19 +1971,19 @@
         <v>994135</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>976680</v>
+        <v>977968</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1005736</v>
+        <v>1006076</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9489259095890948</v>
+        <v>0.948925909589095</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9322653111034221</v>
+        <v>0.9334948774912586</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9599994409207547</v>
+        <v>0.9603238627733722</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2436</v>
@@ -1992,19 +1992,19 @@
         <v>1996974</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1976267</v>
+        <v>1974841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2015492</v>
+        <v>2014845</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9536098838175163</v>
+        <v>0.9536098838175164</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9437216135648713</v>
+        <v>0.9430407603223425</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9624524246690627</v>
+        <v>0.9621437736333734</v>
       </c>
     </row>
     <row r="24">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3570</v>
+        <v>3585</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0007748794159918519</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.003921338108136715</v>
+        <v>0.003938159117564542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4032</v>
+        <v>3543</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0003739687479261607</v>
+        <v>0.0003739687479261606</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002137417460670541</v>
+        <v>0.00187839931592979</v>
       </c>
     </row>
     <row r="26">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5732</v>
+        <v>6550</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001187897072448358</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005873175434390135</v>
+        <v>0.006711489737837391</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4137</v>
+        <v>3767</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0008219107362754983</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004544011050117785</v>
+        <v>0.004137808294811176</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6520</v>
+        <v>6591</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.001011266426347821</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.003456427740219604</v>
+        <v>0.003494276600386029</v>
       </c>
     </row>
     <row r="29">
@@ -2314,19 +2314,19 @@
         <v>5452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13433</v>
+        <v>14184</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005586109066224493</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001339136017434371</v>
+        <v>0.001334131057605734</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01376449924036775</v>
+        <v>0.01453404026142505</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2335,19 +2335,19 @@
         <v>8430</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3693</v>
+        <v>4320</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16576</v>
+        <v>17073</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.009260690527189802</v>
+        <v>0.009260690527189801</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004057234597762978</v>
+        <v>0.004745280555048535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01820823267900373</v>
+        <v>0.01875423190171861</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2356,19 +2356,19 @@
         <v>13882</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7916</v>
+        <v>7660</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23952</v>
+        <v>24089</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.007359518708744058</v>
+        <v>0.007359518708744056</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004196497140730569</v>
+        <v>0.004060770087853552</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01269803034532614</v>
+        <v>0.01277092979592072</v>
       </c>
     </row>
     <row r="30">
@@ -2383,19 +2383,19 @@
         <v>969318</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>960468</v>
+        <v>960420</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>973617</v>
+        <v>973559</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9932259938613273</v>
+        <v>0.993225993861327</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9841581588081104</v>
+        <v>0.9841080556503436</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9976311733745626</v>
+        <v>0.9975717579443527</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1313</v>
@@ -2404,19 +2404,19 @@
         <v>900461</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>892107</v>
+        <v>891944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>905743</v>
+        <v>905101</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.989142519320543</v>
+        <v>0.9891425193205429</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9799660943308167</v>
+        <v>0.9797864867685733</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.994945061451764</v>
+        <v>0.9942393988990228</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2255</v>
@@ -2425,19 +2425,19 @@
         <v>1869779</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1859561</v>
+        <v>1859473</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1876571</v>
+        <v>1876757</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9912552461169821</v>
+        <v>0.9912552461169819</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9858383787876318</v>
+        <v>0.9857913175825171</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9948557636841493</v>
+        <v>0.9949545492783824</v>
       </c>
     </row>
     <row r="31">
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5515</v>
+        <v>4528</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0003735319347107795</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.001491508844159278</v>
+        <v>0.00122463404081083</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4840</v>
+        <v>4852</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0001923889977347667</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0006742093617588384</v>
+        <v>0.0006758478706308875</v>
       </c>
     </row>
     <row r="33">
@@ -2588,19 +2588,19 @@
         <v>4414</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11544</v>
+        <v>11180</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001267884417279973</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0003387297595524979</v>
+        <v>0.0003390443392915701</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.003316051041229388</v>
+        <v>0.003211354351827906</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -2609,19 +2609,19 @@
         <v>4941</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1970</v>
+        <v>1480</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10942</v>
+        <v>10100</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.001336453121498631</v>
+        <v>0.001336453121498632</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0005328772616774999</v>
+        <v>0.0004001965838354135</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.002959429684454822</v>
+        <v>0.002731568141515364</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>10</v>
@@ -2630,19 +2630,19 @@
         <v>9355</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4481</v>
+        <v>4640</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>16786</v>
+        <v>16885</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.001303200980750814</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.000624223465424169</v>
+        <v>0.0006463540385151411</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.00233835986601889</v>
+        <v>0.002352160963552767</v>
       </c>
     </row>
     <row r="34">
@@ -2657,19 +2657,19 @@
         <v>19116</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10257</v>
+        <v>11029</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>31436</v>
+        <v>32326</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.005491122503018798</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002946445837313376</v>
+        <v>0.003168032841066596</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.009029917240144712</v>
+        <v>0.009285517597585233</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -2678,19 +2678,19 @@
         <v>15063</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8872</v>
+        <v>9131</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26167</v>
+        <v>25786</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.004074019308791905</v>
+        <v>0.004074019308791906</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002399510967074864</v>
+        <v>0.002469505405851531</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007077149996827929</v>
+        <v>0.006974096505513134</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -2699,19 +2699,19 @@
         <v>34180</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23541</v>
+        <v>24189</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>49430</v>
+        <v>51552</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004761238287268555</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003279333181459882</v>
+        <v>0.003369507731392346</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.006885650647040947</v>
+        <v>0.007181236985867204</v>
       </c>
     </row>
     <row r="35">
@@ -2726,19 +2726,19 @@
         <v>123153</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>101560</v>
+        <v>102538</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>147206</v>
+        <v>149855</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03537571722957103</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02917313018073541</v>
+        <v>0.02945397901163985</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04228490066400181</v>
+        <v>0.04304583336812064</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>164</v>
@@ -2747,19 +2747,19 @@
         <v>129808</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>108485</v>
+        <v>110869</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>151638</v>
+        <v>153519</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.03510774853693541</v>
+        <v>0.03510774853693542</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02934062667211275</v>
+        <v>0.02998549112420171</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04101191283189745</v>
+        <v>0.04152064619451216</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>282</v>
@@ -2768,19 +2768,19 @@
         <v>252961</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>223659</v>
+        <v>224889</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>286313</v>
+        <v>287693</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03523769896818629</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03115585282032778</v>
+        <v>0.0313272804186158</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03988372183061797</v>
+        <v>0.04007597747314962</v>
       </c>
     </row>
     <row r="36">
@@ -2795,19 +2795,19 @@
         <v>332136</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>294633</v>
+        <v>294940</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>371846</v>
+        <v>376621</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.09540622314813774</v>
+        <v>0.09540622314813775</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08463336291487192</v>
+        <v>0.08472171401589733</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1068128960771543</v>
+        <v>0.108184486799535</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>476</v>
@@ -2816,19 +2816,19 @@
         <v>367642</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>337185</v>
+        <v>338021</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>403962</v>
+        <v>407519</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.09943219345360163</v>
+        <v>0.09943219345360166</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09119465110478106</v>
+        <v>0.09142078498239302</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1092552557953623</v>
+        <v>0.110217121140245</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>778</v>
@@ -2837,19 +2837,19 @@
         <v>699778</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>648585</v>
+        <v>650140</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>758654</v>
+        <v>754063</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09747981397131021</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09034852800239847</v>
+        <v>0.09056515051989113</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1056812044119296</v>
+        <v>0.1050416691937081</v>
       </c>
     </row>
     <row r="37">
@@ -2864,19 +2864,19 @@
         <v>3002465</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2957889</v>
+        <v>2953789</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3049263</v>
+        <v>3044588</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8624590527019925</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8496545588536712</v>
+        <v>0.8484768399665467</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8759017412178647</v>
+        <v>0.8745588005957512</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4642</v>
@@ -2885,19 +2885,19 @@
         <v>3178580</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3135213</v>
+        <v>3136039</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3216730</v>
+        <v>3216429</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8596760536444614</v>
+        <v>0.8596760536444616</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8479470289442631</v>
+        <v>0.8481704169639536</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8699941312769464</v>
+        <v>0.8699125414529053</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7544</v>
@@ -2906,19 +2906,19 @@
         <v>6181046</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6117240</v>
+        <v>6116202</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6238604</v>
+        <v>6233053</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8610256587947493</v>
+        <v>0.8610256587947495</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8521374244168014</v>
+        <v>0.8519927965165077</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8690436086618166</v>
+        <v>0.8682702538882637</v>
       </c>
     </row>
     <row r="38">
